--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1958,45 +1958,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -287,244 +287,248 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
+</t>
+  </si>
+  <si>
+    <t>Key population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>keyPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
-</t>
-  </si>
-  <si>
-    <t>Key population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:system}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the type of identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -793,6 +797,173 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -975,9 +1146,6 @@
     <t>Address.use</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>XAD.7</t>
   </si>
   <si>
@@ -1020,16 +1188,10 @@
     <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
     <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
   </si>
   <si>
     <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
@@ -1196,9 +1358,6 @@
   </si>
   <si>
     <t>Address.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
@@ -1949,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3511,13 +3670,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3568,7 +3727,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3583,7 +3742,7 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3600,7 +3759,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3626,10 +3785,10 @@
         <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>147</v>
@@ -3673,7 +3832,7 @@
         <v>135</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
@@ -3682,7 +3841,7 @@
         <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3697,7 +3856,7 @@
         <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3714,7 +3873,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3740,16 +3899,16 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3774,13 +3933,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3798,7 +3957,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3813,7 +3972,7 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3830,7 +3989,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3853,19 +4012,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3890,13 +4049,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -3914,7 +4073,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3929,7 +4088,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3938,7 +4097,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3946,7 +4105,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3972,16 +4131,16 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -3991,10 +4150,10 @@
         <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4030,7 +4189,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4045,7 +4204,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4054,7 +4213,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4062,7 +4221,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4085,16 +4244,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4108,7 +4267,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4144,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4159,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4168,7 +4327,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4176,7 +4335,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4199,13 +4358,13 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4256,7 +4415,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4271,7 +4430,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4280,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4288,7 +4447,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4311,16 +4470,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4370,7 +4529,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4385,7 +4544,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4394,7 +4553,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4405,7 +4564,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4541,13 +4700,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4598,7 +4757,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4613,7 +4772,7 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4630,7 +4789,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4656,10 +4815,10 @@
         <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4703,7 +4862,7 @@
         <v>135</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
@@ -4712,7 +4871,7 @@
         <v>136</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4727,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4744,7 +4903,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4770,16 +4929,16 @@
         <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4804,13 +4963,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4828,7 +4987,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4843,7 +5002,7 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4860,7 +5019,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4883,19 +5042,19 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4920,13 +5079,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4944,7 +5103,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4959,7 +5118,7 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4968,7 +5127,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4976,7 +5135,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,16 +5161,16 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5021,10 +5180,10 @@
         <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5060,7 +5219,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5234,7 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5084,7 +5243,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5092,7 +5251,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5115,16 +5274,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5138,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5174,7 +5333,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5189,7 +5348,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5198,7 +5357,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5206,7 +5365,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5229,13 +5388,13 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5286,7 +5445,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5301,7 +5460,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5310,7 +5469,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5318,7 +5477,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5341,16 +5500,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5400,7 +5559,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5415,7 +5574,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5424,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5435,7 +5594,7 @@
         <v>150</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -5571,13 +5730,13 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5628,7 +5787,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5643,7 +5802,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5660,7 +5819,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5686,10 +5845,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>147</v>
@@ -5733,7 +5892,7 @@
         <v>135</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
@@ -5742,7 +5901,7 @@
         <v>136</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5757,7 +5916,7 @@
         <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5774,7 +5933,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5800,16 +5959,16 @@
         <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5834,13 +5993,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5858,7 +6017,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5873,7 +6032,7 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5890,7 +6049,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5913,19 +6072,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5950,13 +6109,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5974,7 +6133,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5989,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5998,7 +6157,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6006,7 +6165,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6032,16 +6191,16 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6051,10 +6210,10 @@
         <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6090,7 +6249,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6105,7 +6264,7 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6114,7 +6273,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6122,7 +6281,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6145,16 +6304,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6168,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6204,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6219,7 +6378,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6228,7 +6387,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6236,7 +6395,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6259,13 +6418,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6316,7 +6475,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6331,7 +6490,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6340,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6348,7 +6507,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6371,16 +6530,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6430,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6445,7 +6604,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6454,7 +6613,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6465,7 +6624,7 @@
         <v>150</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>80</v>
@@ -6601,13 +6760,13 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6658,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6673,7 +6832,7 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6690,7 +6849,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6716,10 +6875,10 @@
         <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>147</v>
@@ -6763,7 +6922,7 @@
         <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>80</v>
@@ -6772,7 +6931,7 @@
         <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6946,7 @@
         <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6804,7 +6963,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6830,16 +6989,16 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6864,13 +7023,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6888,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6903,7 +7062,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -6920,7 +7079,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6943,19 +7102,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6980,13 +7139,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7004,7 +7163,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7019,7 +7178,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7028,7 +7187,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7036,7 +7195,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7062,16 +7221,16 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7084,7 +7243,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7120,7 +7279,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7135,7 +7294,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7144,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7311,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7175,16 +7334,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7198,7 +7357,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7234,7 +7393,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7249,7 +7408,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7258,7 +7417,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7425,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7289,13 +7448,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7346,7 +7505,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7361,7 +7520,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7370,7 +7529,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7378,7 +7537,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7401,16 +7560,16 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7460,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7475,7 +7634,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7484,7 +7643,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7492,7 +7651,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7515,70 +7674,70 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7593,13 +7752,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7608,9 +7767,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7618,13 +7777,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7633,19 +7792,19 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7694,7 +7853,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7709,16 +7868,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7726,7 +7885,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7737,7 +7896,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7746,23 +7905,19 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7810,75 +7965,73 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7902,63 +8055,63 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7972,28 +8125,28 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8018,13 +8171,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8042,7 +8195,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8057,24 +8210,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8091,25 +8244,25 @@
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8158,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8173,38 +8326,38 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8213,20 +8366,18 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8262,25 +8413,25 @@
         <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8289,55 +8440,57 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8386,22 +8539,22 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8410,7 +8563,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8418,11 +8571,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8438,20 +8591,18 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8488,19 +8639,19 @@
         <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8512,10 +8663,10 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8524,7 +8675,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8532,7 +8683,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8543,32 +8694,28 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8580,7 +8727,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8592,13 +8739,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8616,13 +8763,13 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
@@ -8631,7 +8778,7 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -8640,7 +8787,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8795,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8671,18 +8818,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8694,7 +8841,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8706,13 +8853,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8730,7 +8877,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8892,7 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8754,7 +8901,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8762,7 +8909,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8773,7 +8920,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -8785,19 +8932,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8810,7 +8957,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -8846,13 +8993,13 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
@@ -8861,24 +9008,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8886,13 +9033,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8901,16 +9048,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8922,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -8934,13 +9085,13 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -8958,13 +9109,13 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -8973,16 +9124,16 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -8990,11 +9141,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9013,16 +9164,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9034,7 +9189,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9070,7 +9225,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9085,28 +9240,28 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9116,27 +9271,29 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9148,7 +9305,7 @@
         <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>80</v>
@@ -9184,7 +9341,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9199,38 +9356,38 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9239,16 +9396,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9284,25 +9445,25 @@
         <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9311,16 +9472,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9328,11 +9489,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9348,16 +9509,16 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9372,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>80</v>
@@ -9408,7 +9569,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9420,10 +9581,10 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9432,47 +9593,47 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>368</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9510,34 +9671,34 @@
         <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -9546,7 +9707,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9554,7 +9715,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9571,23 +9732,25 @@
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9600,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -9612,13 +9775,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9636,7 +9799,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9651,7 +9814,7 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -9660,15 +9823,15 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9676,33 +9839,33 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9714,7 +9877,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -9726,11 +9889,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -9748,7 +9913,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9763,16 +9928,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9780,7 +9945,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9800,22 +9965,22 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -9828,7 +9993,7 @@
         <v>80</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>80</v>
@@ -9864,7 +10029,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9879,16 +10044,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9896,7 +10061,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9916,23 +10081,19 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -9944,7 +10105,7 @@
         <v>80</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>80</v>
@@ -9980,7 +10141,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9995,60 +10156,56 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>407</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10060,7 +10217,7 @@
         <v>80</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>80</v>
@@ -10096,43 +10253,43 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>412</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10142,24 +10299,26 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10172,7 +10331,7 @@
         <v>80</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>80</v>
@@ -10208,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10220,10 +10379,10 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10232,48 +10391,46 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10322,22 +10479,22 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10346,7 +10503,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10354,43 +10511,39 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10402,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>80</v>
@@ -10438,39 +10591,39 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10481,30 +10634,30 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10528,13 +10681,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -10552,13 +10705,13 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
@@ -10567,16 +10720,16 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -10584,7 +10737,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10604,20 +10757,20 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10630,7 +10783,7 @@
         <v>80</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>80</v>
@@ -10666,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10681,10 +10834,10 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10696,7 +10849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>434</v>
       </c>
@@ -10706,13 +10859,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10721,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>435</v>
@@ -10729,11 +10882,9 @@
       <c r="L77" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -10758,13 +10909,11 @@
         <v>80</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>80</v>
@@ -10788,7 +10937,7 @@
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
@@ -10797,16 +10946,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -10814,7 +10963,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10837,17 +10986,19 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -10896,7 +11047,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10911,16 +11062,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -10928,7 +11079,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10939,7 +11090,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
@@ -10951,17 +11102,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>259</v>
+        <v>452</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -10986,13 +11139,13 @@
         <v>80</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>80</v>
@@ -11010,13 +11163,13 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>80</v>
@@ -11025,16 +11178,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11042,7 +11195,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11053,7 +11206,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11065,17 +11218,19 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11124,31 +11279,31 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>464</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11156,7 +11311,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11179,13 +11334,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>456</v>
+        <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11236,7 +11391,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11248,13 +11403,13 @@
         <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>458</v>
+        <v>167</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11268,11 +11423,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11291,20 +11446,18 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>461</v>
+        <v>170</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11352,7 +11505,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>459</v>
+        <v>172</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11364,13 +11517,13 @@
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>464</v>
+        <v>167</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11384,39 +11537,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11464,22 +11621,22 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>165</v>
+        <v>472</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -11496,11 +11653,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11519,18 +11676,18 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>168</v>
+        <v>474</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11554,13 +11711,13 @@
         <v>80</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>80</v>
@@ -11578,7 +11735,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>171</v>
+        <v>473</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11590,19 +11747,19 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -11610,42 +11767,40 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>148</v>
+        <v>484</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -11694,31 +11849,31 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -11726,7 +11881,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11734,10 +11889,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -11749,19 +11904,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -11786,13 +11941,13 @@
         <v>80</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>80</v>
@@ -11810,13 +11965,13 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>80</v>
@@ -11825,16 +11980,16 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -11842,7 +11997,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11865,19 +12020,17 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
@@ -11926,7 +12079,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11941,16 +12094,16 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>482</v>
+        <v>350</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>483</v>
+        <v>167</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -11958,18 +12111,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
@@ -11981,18 +12134,18 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>487</v>
+        <v>107</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>315</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12016,13 +12169,13 @@
         <v>80</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>80</v>
@@ -12040,13 +12193,13 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>80</v>
@@ -12055,16 +12208,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>491</v>
+        <v>321</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12072,7 +12225,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12080,7 +12233,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>87</v>
@@ -12092,22 +12245,20 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
@@ -12156,7 +12307,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12165,22 +12316,22 @@
         <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12188,7 +12339,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12199,32 +12350,28 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12272,13 +12419,13 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>80</v>
@@ -12287,10 +12434,10 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12304,7 +12451,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12315,7 +12462,7 @@
         <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>80</v>
@@ -12327,16 +12474,20 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12384,25 +12535,25 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>165</v>
+        <v>511</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>166</v>
+        <v>516</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12416,18 +12567,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12439,17 +12590,15 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -12498,22 +12647,22 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -12530,11 +12679,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12547,26 +12696,24 @@
         <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>418</v>
+        <v>169</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>419</v>
+        <v>170</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N93" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12614,7 +12761,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>420</v>
+        <v>172</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12629,7 +12776,7 @@
         <v>138</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -12646,41 +12793,43 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
@@ -12728,31 +12877,31 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -12760,7 +12909,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12780,19 +12929,23 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
@@ -12816,13 +12969,13 @@
         <v>80</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>516</v>
+        <v>112</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>517</v>
+        <v>113</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>80</v>
@@ -12840,7 +12993,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>87</v>
@@ -12855,23 +13008,1053 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12881,7 +14064,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-patient.xlsx
+++ b/branches/main/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
